--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8026,6 +8026,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SEM2</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>4779804000000</v>
+      </c>
+      <c r="D304" t="n">
+        <v>4779804000000</v>
+      </c>
+      <c r="E304" t="n">
+        <v>4779804000000</v>
+      </c>
+      <c r="F304" t="n">
+        <v>4779804000000</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SEM2</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>4773513000000</v>
+      </c>
+      <c r="D305" t="n">
+        <v>4773513000000</v>
+      </c>
+      <c r="E305" t="n">
+        <v>4773513000000</v>
+      </c>
+      <c r="F305" t="n">
+        <v>4773513000000</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8061,18 +8061,43 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>4773513000000</v>
+        <v>4773819000000</v>
       </c>
       <c r="D305" t="n">
-        <v>4773513000000</v>
+        <v>4773819000000</v>
       </c>
       <c r="E305" t="n">
-        <v>4773513000000</v>
+        <v>4773819000000</v>
       </c>
       <c r="F305" t="n">
-        <v>4773513000000</v>
+        <v>4773819000000</v>
       </c>
       <c r="G305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SEM2</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>4766051000000</v>
+      </c>
+      <c r="D306" t="n">
+        <v>4766051000000</v>
+      </c>
+      <c r="E306" t="n">
+        <v>4766051000000</v>
+      </c>
+      <c r="F306" t="n">
+        <v>4766051000000</v>
+      </c>
+      <c r="G306" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7986,16 +7986,16 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>4913649000000</v>
+        <v>4903738000000</v>
       </c>
       <c r="D302" t="n">
-        <v>4913649000000</v>
+        <v>4903738000000</v>
       </c>
       <c r="E302" t="n">
-        <v>4913649000000</v>
+        <v>4903738000000</v>
       </c>
       <c r="F302" t="n">
-        <v>4913649000000</v>
+        <v>4903738000000</v>
       </c>
       <c r="G302" t="n">
         <v>0</v>
@@ -8011,16 +8011,16 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>4814208000000</v>
+        <v>4814210000000</v>
       </c>
       <c r="D303" t="n">
-        <v>4814208000000</v>
+        <v>4814210000000</v>
       </c>
       <c r="E303" t="n">
-        <v>4814208000000</v>
+        <v>4814210000000</v>
       </c>
       <c r="F303" t="n">
-        <v>4814208000000</v>
+        <v>4814210000000</v>
       </c>
       <c r="G303" t="n">
         <v>0</v>
@@ -8036,16 +8036,16 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>4779804000000</v>
+        <v>4779806000000</v>
       </c>
       <c r="D304" t="n">
-        <v>4779804000000</v>
+        <v>4779806000000</v>
       </c>
       <c r="E304" t="n">
-        <v>4779804000000</v>
+        <v>4779806000000</v>
       </c>
       <c r="F304" t="n">
-        <v>4779804000000</v>
+        <v>4779806000000</v>
       </c>
       <c r="G304" t="n">
         <v>0</v>
@@ -8098,6 +8098,31 @@
         <v>4766051000000</v>
       </c>
       <c r="G306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SEM2</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>4811874000000</v>
+      </c>
+      <c r="D307" t="n">
+        <v>4811874000000</v>
+      </c>
+      <c r="E307" t="n">
+        <v>4811874000000</v>
+      </c>
+      <c r="F307" t="n">
+        <v>4811874000000</v>
+      </c>
+      <c r="G307" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G307"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8111,18 +8111,93 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>4811874000000</v>
+        <v>4812070000000</v>
       </c>
       <c r="D307" t="n">
-        <v>4811874000000</v>
+        <v>4812070000000</v>
       </c>
       <c r="E307" t="n">
-        <v>4811874000000</v>
+        <v>4812070000000</v>
       </c>
       <c r="F307" t="n">
-        <v>4811874000000</v>
+        <v>4812070000000</v>
       </c>
       <c r="G307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SEM2</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>4784709000000</v>
+      </c>
+      <c r="D308" t="n">
+        <v>4784709000000</v>
+      </c>
+      <c r="E308" t="n">
+        <v>4784709000000</v>
+      </c>
+      <c r="F308" t="n">
+        <v>4784709000000</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SEM2</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>4765034000000</v>
+      </c>
+      <c r="D309" t="n">
+        <v>4765034000000</v>
+      </c>
+      <c r="E309" t="n">
+        <v>4765034000000</v>
+      </c>
+      <c r="F309" t="n">
+        <v>4765034000000</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>ECONOMICS:SEM2</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>4744031000000</v>
+      </c>
+      <c r="D310" t="n">
+        <v>4744031000000</v>
+      </c>
+      <c r="E310" t="n">
+        <v>4744031000000</v>
+      </c>
+      <c r="F310" t="n">
+        <v>4744031000000</v>
+      </c>
+      <c r="G310" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Sweden_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7522,18 +7522,41 @@
         <v>7</v>
       </c>
       <c r="C310">
-        <v>4744031000000</v>
+        <v>4744178000000</v>
       </c>
       <c r="D310">
-        <v>4744031000000</v>
+        <v>4744178000000</v>
       </c>
       <c r="E310">
-        <v>4744031000000</v>
+        <v>4744178000000</v>
       </c>
       <c r="F310">
-        <v>4744031000000</v>
+        <v>4744178000000</v>
       </c>
       <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311">
+        <v>4717124000000</v>
+      </c>
+      <c r="D311">
+        <v>4717124000000</v>
+      </c>
+      <c r="E311">
+        <v>4717124000000</v>
+      </c>
+      <c r="F311">
+        <v>4717124000000</v>
+      </c>
+      <c r="G311">
         <v>0</v>
       </c>
     </row>
